--- a/docs/PT2/PT2_02.08.24_output.xlsx
+++ b/docs/PT2/PT2_02.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K106"/>
+  <dimension ref="A1:N106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,532 +505,629 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1730820273.845077</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1730820276.4975982</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1730820273.845077.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1730820276.4975982.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>286.87</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>285.89</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.9800000000000182</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1730820277.0687606</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1730820278.8018355</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1730820277.0687606.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1730820278.8018355.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>286.12</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>284.88</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>1.240000000000009</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.43</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1730820280.1155362</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1730820280.172172</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1730820280.1155362.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1730820280.172172.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>285.58</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>285.79</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-0.2100000000000364</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1730820280.3086202</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1730820283.5172644</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBER1730820280.3086202.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBER1730820283.5172644.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>285.86</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>285.2</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.660000000000025</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1730820288.5333347</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1730820294.6133235</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBER1730820288.5333347.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBER1730820294.6133235.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>284.96</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>286.58</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-1.620000000000005</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.5700000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1730820304.324815</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1730820304.7673366</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1730820304.324815.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1730820304.7673366.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>285.93</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>285.94</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.009999999999990905</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1730820306.3445935</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1730820308.6491616</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730820306.3445935.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730820308.6491616.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>132.46</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>132.21</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.25</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1730820314.7043166</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1730820316.4369748</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730820314.7043166.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730820316.4369748.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>131.14</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>130.5</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.6399999999999864</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.49</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1730820318.9090564</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1730820328.0239718</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730820318.9090564.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730820328.0239718.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>130.53</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>131.55</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-1.02000000000001</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.7799999999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1730820335.4734056</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1730820336.5068145</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730820335.4734056.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730820336.5068145.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>131.2</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>131.2</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1023,2270 +1135,2693 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1730820336.9735265</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1730820337.3919404</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730820336.9735265.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730820337.3919404.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>131.17</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>131.2</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.03000000000000114</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1730820340.080906</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1730820340.2691011</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730820340.080906.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730820340.2691011.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>6677.5</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>6675.5</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>2</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1730820340.529175</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1730820342.6097472</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730820340.529175.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730820342.6097472.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>6681</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>6665.5</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>15.5</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1730820348.4243054</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1730820350.2420835</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730820348.4243054.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730820350.2420835.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>6646.5</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>6624.5</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>22</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1730820352.7164278</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1730820355.181545</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730820352.7164278.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730820355.181545.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>6622.5</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>6602.5</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>20</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1730820355.5737255</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1730820355.6709456</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730820355.5737255.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730820355.6709456.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>6614.5</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>6607.5</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>7</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1730820355.7719798</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1730820360.8223662</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730820355.7719798.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730820360.8223662.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>6611</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>6634.5</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-23.5</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.36</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1730820365.5470247</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1730820366.4932568</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730820365.5470247.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730820366.4932568.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>6605</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>6599.5</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>5.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1730820399.1193526</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1730820399.7161164</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730820399.1193526.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730820399.7161164.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>504.85</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>504.5</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.3500000000000227</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1730820400.142773</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1730820401.3362737</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730820400.142773.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730820401.3362737.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>504.5</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>505</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>-0.5</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1730820406.3613732</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1730820408.5176911</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730820406.3613732.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730820408.5176911.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>229.07</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>228.92</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.1500000000000057</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1730820412.5081003</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1730820415.162376</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730820412.5081003.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730820415.162376.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>228.42</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>228.2</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.2199999999999989</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1730820417.1534038</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1730820418.3062108</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730820417.1534038.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730820418.3062108.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>227.94</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>227.76</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.1800000000000068</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1730820419.7404792</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1730820426.6521604</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730820419.7404792.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730820426.6521604.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>227.77</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>229.5</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-1.72999999999999</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.76</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1730820427.028931</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1730820431.0016396</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730820427.028931.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730820431.0016396.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>229.64</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>230.28</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.6400000000000148</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1730820436.0638146</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1730820436.0638146.png</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+          <t>./test_images/MOEX1730820436.0638146.png</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>229.99</v>
       </c>
-      <c r="J28" t="n">
-        <v>229.99</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
+      <c r="L28" t="n">
+        <v>230.16</v>
+      </c>
+      <c r="M28" t="n">
+        <v>-0.1699999999999875</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1730820445.8801165</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1730820447.718994</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730820445.8801165.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730820447.718994.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>1025.8</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>1020.8</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>5</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.49</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1730820449.9764085</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1730820451.3147037</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730820449.9764085.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730820451.3147037.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>1022.4</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>1016.6</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>5.799999999999955</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.5700000000000001</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1730820453.4232721</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1730820457.421166</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730820453.4232721.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730820457.421166.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>1019</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>1024.6</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-5.599999999999909</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.5499999999999999</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1730820464.2355597</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1730820465.142022</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730820464.2355597.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730820465.142022.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>1019.6</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>1018.8</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.8000000000000682</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1730820466.199116</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1730820467.073786</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730820466.199116.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730820467.073786.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>1018</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>1018.4</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>-0.3999999999999773</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1730820470.698911</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1730820471.5387633</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/CNY1730820470.698911.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/CNY1730820471.5387633.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>11.859</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>11.856</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.003000000000000114</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1730820473.6625013</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1730820473.6625013.png</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
+          <t>./test_images/CNY1730820473.6625013.png</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>11.868</v>
       </c>
-      <c r="J35" t="n">
-        <v>11.868</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
+      <c r="L35" t="n">
+        <v>11.869</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.0009999999999994458</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1730820475.1045923</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1730820476.2661457</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730820475.1045923.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730820476.2661457.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>128.66</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>128.36</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.2999999999999829</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1730820483.1462498</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1730820484.824161</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730820483.1462498.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730820484.824161.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>127.9</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>127.5</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.4000000000000057</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1730820489.9887457</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1730820493.0415144</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730820489.9887457.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730820493.0415144.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>128.1</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>128.12</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>-0.02000000000001023</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1730820505.5672886</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1730820505.5672886.png</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1730820505.5672886.png</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>127.68</v>
       </c>
-      <c r="J39" t="n">
-        <v>127.68</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
+      <c r="L39" t="n">
+        <v>127.7</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.01999999999999602</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1730820512.677442</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1730820514.438708</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730820512.677442.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730820514.438708.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>164.4</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>164.22</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.1800000000000068</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1730820519.2725594</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1730820520.571828</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730820519.2725594.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730820520.571828.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>164.78</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>164.1</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.6800000000000068</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.41</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1730820527.806239</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1730820533.4879026</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730820527.806239.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730820533.4879026.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>165.8</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>165.36</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>-0.4399999999999977</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.27</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1730820537.9966905</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1730820538.052293</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730820537.9966905.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730820538.052293.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>50.53</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>50.6</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-0.07000000000000028</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1730820538.2028615</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1730820538.5142367</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730820538.2028615.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730820538.5142367.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>50.605</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>50.385</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.2199999999999989</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.43</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1730820538.8223746</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1730820538.9209774</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730820538.8223746.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730820538.9209774.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>50.46</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>50.435</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.02499999999999858</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1730820539.1883497</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1730820543.127116</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730820539.1883497.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730820543.127116.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>50.495</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>50.41</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.08500000000000085</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1730820545.3209434</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1730820549.9758716</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730820545.3209434.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730820549.9758716.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>50.395</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>50.43</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>-0.03499999999999659</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1730820555.5698867</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1730820555.7558436</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730820555.5698867.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730820555.7558436.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>50.305</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>50.21</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.09499999999999886</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1730820557.064727</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1730820560.3632174</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730820557.064727.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730820560.3632174.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>50.28</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>50.22</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1730820562.7103517</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1730820566.4912689</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730820562.7103517.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730820566.4912689.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>50.32</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>50.39</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>-0.07000000000000028</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1730820566.5088391</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1730820568.41622</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730820566.5088391.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730820568.41622.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>50.39</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>50.365</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>-0.02499999999999858</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1730820569.9873807</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1730820569.9873807.png</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1730820569.9873807.png</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>50.405</v>
       </c>
-      <c r="J52" t="n">
-        <v>50.405</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0</v>
+      <c r="L52" t="n">
+        <v>50.39</v>
+      </c>
+      <c r="M52" t="n">
+        <v>-0.01500000000000057</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1730820571.8698227</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1730820572.0476577</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730820571.8698227.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730820572.0476577.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>1409.4</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>1408.4</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1730820572.31215</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1730820575.768101</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730820572.31215.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730820575.768101.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>1408.6</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>1405.4</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>3.199999999999818</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1730820579.8780735</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1730820580.7156398</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730820579.8780735.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730820580.7156398.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>1406</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>1405.6</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.4000000000000909</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1730820583.4931655</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1730820586.8554785</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730820583.4931655.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730820586.8554785.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>1405</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>1397.6</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>7.400000000000091</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.53</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1730820588.0115054</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1730820592.026461</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730820588.0115054.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730820592.026461.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>1400.8</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>1406.2</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>-5.400000000000091</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-0.39</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1730820594.4519172</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1730820597.9414093</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730820594.4519172.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730820597.9414093.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>1397.8</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>1400.2</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>-2.400000000000091</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1730820597.9570327</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1730820599.5825715</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730820597.9570327.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730820599.5825715.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>1400.2</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>1400.2</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3294,1298 +3829,1541 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1730820602.0727127</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1730820602.0727127.png</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1730820602.0727127.png</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>1405</v>
       </c>
-      <c r="J60" t="n">
-        <v>1405</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0</v>
+      <c r="L60" t="n">
+        <v>1405.4</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.4000000000000909</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1730820604.1559522</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1730820606.6798546</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730820604.1559522.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730820606.6798546.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>60.7</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>60.86</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>-0.1599999999999966</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-0.26</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1730820611.033066</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1730820612.558834</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730820611.033066.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730820612.558834.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>60.74</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>60.48</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0.2600000000000051</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.43</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1730820618.9953175</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1730820624.1287882</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730820618.9953175.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730820624.1287882.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>60.14</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>60.49</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>-0.3500000000000014</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-0.58</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1730820633.0185897</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1730820633.5091784</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730820633.0185897.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730820633.5091784.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>60.28</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>60.39</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>0.1099999999999994</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1730820634.0135474</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1730820635.0709925</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730820634.0135474.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730820635.0709925.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>60.33</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>60.28</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>-0.04999999999999716</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1730820638.481537</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1730820638.8953612</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/VTBR1730820638.481537.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/VTBR1730820638.8953612.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>97.58</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>97.65000000000001</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>0.07000000000000739</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1730820647.3506718</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1730820650.551834</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/SELG1730820647.3506718.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/SELG1730820650.551834.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>56.84</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>56.49</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>0.3500000000000014</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.62</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1730820669.771901</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1730820670.3282268</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/SELG1730820669.771901.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/SELG1730820670.3282268.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>56.99</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>56.93</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1730820671.0583694</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1730820671.0583694.png</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
+          <t>./test_images/SELG1730820671.0583694.png</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>57.05</v>
       </c>
-      <c r="J69" t="n">
-        <v>57.05</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0</v>
+      <c r="L69" t="n">
+        <v>57.13</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.0800000000000054</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1730820692.7247136</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1730820699.0919235</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730820692.7247136.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730820699.0919235.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>145.36</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>145.94</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>0.5799999999999841</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1730820700.116326</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1730820700.9060102</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730820700.116326.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730820700.9060102.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>145.64</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>145.98</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>0.3400000000000034</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1730820710.3689878</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1730820713.8830311</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730820710.3689878.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730820713.8830311.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>20.68</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>20.631</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>0.04899999999999949</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1730820715.7923152</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1730820716.0247235</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730820715.7923152.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730820716.0247235.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>20.668</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>20.577</v>
       </c>
-      <c r="K73" t="n">
-        <v>0.09100000000000108</v>
+      <c r="M73" t="n">
+        <v>0.09099999999999753</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.44</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1730820716.2366889</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1730820717.7164016</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730820716.2366889.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730820717.7164016.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>20.661</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>20.6</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>0.06099999999999994</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1730820733.5677888</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1730820735.058754</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730820733.5677888.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730820735.058754.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>20.903</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>20.888</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>-0.01499999999999702</v>
+      </c>
+      <c r="N75" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1730820737.001457</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1730820740.2953546</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730820737.001457.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730820740.2953546.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>677.55</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>675.2</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>2.349999999999909</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1730820743.156234</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1730820747.4627583</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730820743.156234.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730820747.4627583.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>674.05</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>671.35</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>2.699999999999932</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1730820753.821192</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1730820758.9230723</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730820753.821192.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730820758.9230723.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>665.1</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>672.65</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>-7.549999999999955</v>
+      </c>
+      <c r="N78" t="n">
+        <v>-1.14</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1730820763.866656</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1730820764.1562965</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730820763.866656.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730820764.1562965.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>674.2</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>674.6</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>0.3999999999999773</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1730820765.5951827</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1730820765.6478865</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730820765.5951827.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730820765.6478865.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>675.95</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>676.75</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>0.7999999999999545</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1730820766.0002468</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1730820766.0002468.png</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1730820766.0002468.png</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>676.45</v>
       </c>
-      <c r="J81" t="n">
-        <v>676.45</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0</v>
+      <c r="L81" t="n">
+        <v>677.45</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1730820767.0363624</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1730820767.2570422</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/FEES1730820767.0363624.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/FEES1730820767.2570422.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>0.09928000000000001</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>0.09864000000000001</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>0.0006400000000000017</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.64</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1730820767.9788444</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1730820768.036964</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/FEES1730820767.9788444.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/FEES1730820768.036964.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>0.09914000000000001</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>0.09920000000000001</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>-6.000000000000449e-05</v>
+      </c>
+      <c r="N83" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1730820768.2170856</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1730820776.0941155</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/FEES1730820768.2170856.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/FEES1730820776.0941155.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>0.09916000000000001</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>0.10036</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>-0.001199999999999993</v>
+      </c>
+      <c r="N84" t="n">
+        <v>-1.21</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1730820792.2487483</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1730820792.677501</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/FEES1730820792.2487483.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/FEES1730820792.677501.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>0.09912000000000001</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>0.09886</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>0.0002600000000000102</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1730820792.776142</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1730820793.722858</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/FEES1730820792.776142.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/FEES1730820793.722858.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>0.09906000000000001</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>0.09906000000000001</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4593,914 +5371,1085 @@
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1730820794.8446515</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1730820798.0322723</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/FEES1730820794.8446515.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/FEES1730820798.0322723.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>0.09888000000000001</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>0.09908</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>-0.0001999999999999919</v>
+      </c>
+      <c r="N87" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1730820800.3319461</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1730820804.5972133</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/HYDR1730820800.3319461.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/HYDR1730820804.5972133.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>0.5998</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>0.5964</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>0.003399999999999959</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.5700000000000001</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1730820818.2652602</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1730820824.6256583</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/HYDR1730820818.2652602.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/HYDR1730820824.6256583.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>0.6027</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>0.6024</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>-0.000299999999999967</v>
+      </c>
+      <c r="N89" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1730820826.2211533</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>./test_images/HYDR1730820826.2211533.png</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
+          <t>./test_images/HYDR1730820826.2211533.png</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>0.6021000000000001</v>
       </c>
-      <c r="J90" t="n">
-        <v>0.6021000000000001</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0</v>
+      <c r="L90" t="n">
+        <v>0.6022</v>
+      </c>
+      <c r="M90" t="n">
+        <v>9.999999999987796e-05</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1730820827.6045024</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>1730820828.67884</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>./test_images/MXI1730820827.6045024.png</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>./test_images/MXI1730820828.67884.png</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>2984.9</v>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>2993.75</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>-8.849999999999909</v>
+      </c>
+      <c r="N91" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1730820831.8614025</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>1730820832.3103523</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>./test_images/MXI1730820831.8614025.png</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>./test_images/MXI1730820832.3103523.png</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>2984.1</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>2975.95</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>8.150000000000091</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>1730820833.043044</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>1730820833.8784661</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>./test_images/MXI1730820833.043044.png</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>./test_images/MXI1730820833.8784661.png</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
         <v>2973.95</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>2971.1</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>2.849999999999909</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>1730820835.5772386</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>1730820837.0559816</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>./test_images/MXI1730820835.5772386.png</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>./test_images/MXI1730820837.0559816.png</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>2972.35</v>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>2973.45</v>
       </c>
-      <c r="K94" t="n">
+      <c r="M94" t="n">
         <v>-1.099999999999909</v>
+      </c>
+      <c r="N94" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>1730820839.0848715</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>1730820840.3815863</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>./test_images/MXI1730820839.0848715.png</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>./test_images/MXI1730820840.3815863.png</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
         <v>2962.35</v>
       </c>
-      <c r="J95" t="n">
+      <c r="L95" t="n">
         <v>2962.5</v>
       </c>
-      <c r="K95" t="n">
+      <c r="M95" t="n">
         <v>-0.1500000000000909</v>
+      </c>
+      <c r="N95" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>1730820841.6460564</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>1730820844.4513283</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>./test_images/MXI1730820841.6460564.png</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>./test_images/MXI1730820844.4513283.png</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
         <v>2960</v>
       </c>
-      <c r="J96" t="n">
+      <c r="L96" t="n">
         <v>2965.05</v>
       </c>
-      <c r="K96" t="n">
+      <c r="M96" t="n">
         <v>-5.050000000000182</v>
+      </c>
+      <c r="N96" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>1730820844.4688957</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>1730820844.532618</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>./test_images/MXI1730820844.4688957.png</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>./test_images/MXI1730820844.532618.png</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
         <v>2965.05</v>
       </c>
-      <c r="J97" t="n">
+      <c r="L97" t="n">
         <v>2965.7</v>
       </c>
-      <c r="K97" t="n">
+      <c r="M97" t="n">
         <v>0.6499999999996362</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>1730820845.6011024</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>1730820845.8798492</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>./test_images/MXI1730820845.6011024.png</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>./test_images/MXI1730820845.8798492.png</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
         <v>2970.1</v>
       </c>
-      <c r="J98" t="n">
+      <c r="L98" t="n">
         <v>2973.4</v>
       </c>
-      <c r="K98" t="n">
+      <c r="M98" t="n">
         <v>3.300000000000182</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="n">
+        <v>97</v>
+      </c>
+      <c r="D99" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>1730820846.756641</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>1730820847.0163443</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>./test_images/MXI1730820846.756641.png</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>./test_images/MXI1730820847.0163443.png</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
         <v>2980.4</v>
       </c>
-      <c r="J99" t="n">
+      <c r="L99" t="n">
         <v>2984</v>
       </c>
-      <c r="K99" t="n">
+      <c r="M99" t="n">
         <v>3.599999999999909</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" t="n">
+        <v>98</v>
+      </c>
+      <c r="C100" t="n">
+        <v>98</v>
+      </c>
+      <c r="D100" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>1730820847.285857</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>1730820848.4114258</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>./test_images/MXI1730820847.285857.png</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>./test_images/MXI1730820848.4114258.png</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I100" t="n">
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
         <v>2983.8</v>
       </c>
-      <c r="J100" t="n">
+      <c r="L100" t="n">
         <v>2978.9</v>
       </c>
-      <c r="K100" t="n">
+      <c r="M100" t="n">
         <v>-4.900000000000091</v>
+      </c>
+      <c r="N100" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" t="n">
+        <v>99</v>
+      </c>
+      <c r="C101" t="n">
+        <v>99</v>
+      </c>
+      <c r="D101" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>1730820850.5475688</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>1730820850.8846872</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>./test_images/MXI1730820850.5475688.png</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>./test_images/MXI1730820850.8846872.png</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I101" t="n">
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
         <v>2962.3</v>
       </c>
-      <c r="J101" t="n">
+      <c r="L101" t="n">
         <v>2961.6</v>
       </c>
-      <c r="K101" t="n">
+      <c r="M101" t="n">
         <v>0.7000000000002728</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B102" t="n">
+        <v>100</v>
+      </c>
+      <c r="C102" t="n">
+        <v>100</v>
+      </c>
+      <c r="D102" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>1730820856.9975934</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>1730820857.122549</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>./test_images/MXI1730820856.9975934.png</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>./test_images/MXI1730820857.122549.png</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="I102" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I102" t="n">
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
         <v>2964.05</v>
       </c>
-      <c r="J102" t="n">
+      <c r="L102" t="n">
         <v>2964.95</v>
       </c>
-      <c r="K102" t="n">
+      <c r="M102" t="n">
         <v>0.8999999999996362</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B103" t="n">
+        <v>101</v>
+      </c>
+      <c r="C103" t="n">
+        <v>101</v>
+      </c>
+      <c r="D103" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>1730820857.4260578</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>1730820857.6624303</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>./test_images/MXI1730820857.4260578.png</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="H103" t="inlineStr">
         <is>
           <t>./test_images/MXI1730820857.6624303.png</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="I103" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I103" t="n">
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
         <v>2964.6</v>
       </c>
-      <c r="J103" t="n">
+      <c r="L103" t="n">
         <v>2966</v>
       </c>
-      <c r="K103" t="n">
+      <c r="M103" t="n">
         <v>1.400000000000091</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B104" t="n">
+        <v>102</v>
+      </c>
+      <c r="C104" t="n">
+        <v>102</v>
+      </c>
+      <c r="D104" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>1730820858.1040974</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>1730820858.19682</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>./test_images/MXI1730820858.1040974.png</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="H104" t="inlineStr">
         <is>
           <t>./test_images/MXI1730820858.19682.png</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
+      <c r="I104" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I104" t="n">
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
         <v>2964.35</v>
       </c>
-      <c r="J104" t="n">
+      <c r="L104" t="n">
         <v>2965.65</v>
       </c>
-      <c r="K104" t="n">
+      <c r="M104" t="n">
         <v>1.300000000000182</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B105" t="n">
+        <v>103</v>
+      </c>
+      <c r="C105" t="n">
+        <v>103</v>
+      </c>
+      <c r="D105" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>1730820858.7993593</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1730820858.7993593.png</t>
         </is>
       </c>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr">
         <is>
+          <t>./test_images/MXI1730820858.7993593.png</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I105" t="n">
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
         <v>2965.3</v>
       </c>
-      <c r="J105" t="n">
+      <c r="L105" t="n">
         <v>2965.3</v>
       </c>
-      <c r="K105" t="n">
+      <c r="M105" t="n">
+        <v>0</v>
+      </c>
+      <c r="N105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5508,49 +6457,58 @@
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B106" t="n">
+        <v>104</v>
+      </c>
+      <c r="C106" t="n">
+        <v>104</v>
+      </c>
+      <c r="D106" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>1730820867.0526483</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>1730820871.1933692</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730820867.0526483.png</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="H106" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730820871.1933692.png</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I106" t="n">
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
         <v>34.24</v>
       </c>
-      <c r="J106" t="n">
+      <c r="L106" t="n">
         <v>34.095</v>
       </c>
-      <c r="K106" t="n">
+      <c r="M106" t="n">
         <v>0.1450000000000031</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0.42</v>
       </c>
     </row>
   </sheetData>
@@ -5564,7 +6522,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5588,6 +6546,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -5601,6 +6574,15 @@
       <c r="C2" t="n">
         <v>15</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.1866666666666485</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.08000000000000004</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -5609,11 +6591,20 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2850000000000037</v>
+        <v>0.2700000000000031</v>
       </c>
       <c r="C3" t="n">
         <v>10</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.02700000000000031</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5299999999999999</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -5622,11 +6613,20 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.199999999999818</v>
+        <v>4.599999999999909</v>
       </c>
       <c r="C4" t="n">
         <v>8</v>
       </c>
+      <c r="D4" t="n">
+        <v>0.5749999999999886</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.3300000000000001</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -5640,6 +6640,15 @@
       <c r="C5" t="n">
         <v>7</v>
       </c>
+      <c r="D5" t="n">
+        <v>6.928571428571429</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -5648,11 +6657,20 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.300000000000182</v>
+        <v>-0.3000000000001819</v>
       </c>
       <c r="C6" t="n">
         <v>6</v>
       </c>
+      <c r="D6" t="n">
+        <v>-0.05000000000003032</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.06000000000000014</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.01</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -5666,6 +6684,15 @@
       <c r="C7" t="n">
         <v>6</v>
       </c>
+      <c r="D7" t="n">
+        <v>-9.333333333332953e-05</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.5699999999999998</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.09</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -5679,6 +6706,15 @@
       <c r="C8" t="n">
         <v>6</v>
       </c>
+      <c r="D8" t="n">
+        <v>0.1766666666666671</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.3599999999999999</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -5687,11 +6723,20 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.5399999999999636</v>
+        <v>-0.7099999999999511</v>
       </c>
       <c r="C9" t="n">
         <v>6</v>
       </c>
+      <c r="D9" t="n">
+        <v>-0.1183333333333252</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.05</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -5705,6 +6750,15 @@
       <c r="C10" t="n">
         <v>5</v>
       </c>
+      <c r="D10" t="n">
+        <v>-0.03799999999999813</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.06</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -5718,6 +6772,15 @@
       <c r="C11" t="n">
         <v>5</v>
       </c>
+      <c r="D11" t="n">
+        <v>-0.02000000000000455</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.07999999999999986</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.02</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -5731,6 +6794,15 @@
       <c r="C12" t="n">
         <v>5</v>
       </c>
+      <c r="D12" t="n">
+        <v>1.120000000000027</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5500000000000002</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -5739,11 +6811,20 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1860000000000035</v>
+        <v>0.1859999999999999</v>
       </c>
       <c r="C13" t="n">
         <v>4</v>
       </c>
+      <c r="D13" t="n">
+        <v>0.04649999999999999</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -5752,11 +6833,20 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.6799999999999784</v>
+        <v>0.6999999999999744</v>
       </c>
       <c r="C14" t="n">
         <v>4</v>
       </c>
+      <c r="D14" t="n">
+        <v>0.1749999999999936</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -5770,6 +6860,15 @@
       <c r="C15" t="n">
         <v>3</v>
       </c>
+      <c r="D15" t="n">
+        <v>0.1400000000000053</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -5778,11 +6877,20 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.003099999999999992</v>
+        <v>0.00319999999999987</v>
       </c>
       <c r="C16" t="n">
         <v>3</v>
       </c>
+      <c r="D16" t="n">
+        <v>0.001066666666666623</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -5791,11 +6899,20 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4100000000000037</v>
+        <v>0.4900000000000091</v>
       </c>
       <c r="C17" t="n">
         <v>3</v>
       </c>
+      <c r="D17" t="n">
+        <v>0.1633333333333364</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -5809,6 +6926,15 @@
       <c r="C18" t="n">
         <v>2</v>
       </c>
+      <c r="D18" t="n">
+        <v>-0.07499999999998863</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.03000000000000001</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.02</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -5817,11 +6943,20 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.003000000000000114</v>
+        <v>0.003999999999999559</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
       </c>
+      <c r="D19" t="n">
+        <v>0.00199999999999978</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -5835,6 +6970,15 @@
       <c r="C20" t="n">
         <v>2</v>
       </c>
+      <c r="D20" t="n">
+        <v>0.4599999999999937</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -5848,6 +6992,15 @@
       <c r="C21" t="n">
         <v>1</v>
       </c>
+      <c r="D21" t="n">
+        <v>0.1450000000000031</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -5861,6 +7014,15 @@
       <c r="C22" t="n">
         <v>1</v>
       </c>
+      <c r="D22" t="n">
+        <v>0.07000000000000739</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.06999999999999999</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -5874,6 +7036,11 @@
       <c r="C23" t="n">
         <v>0</v>
       </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
